--- a/EV50F63A_MCP19061_Dual_USB_DCP.xlsx
+++ b/EV50F63A_MCP19061_Dual_USB_DCP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://siemensnam-my.sharepoint.com/personal/carlos_gazca-gamez_siemens_com/Documents/Documents/01_Projects/Scripts/PopulateBOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{2D8A76AA-5582-4441-B8AC-0783C77D4DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DCF013B-432B-4FBD-877A-B70972B105F7}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{2D8A76AA-5582-4441-B8AC-0783C77D4DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC76506B-7C19-469C-B5E3-0C15E7B12DBD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{39C158D7-9C97-4D72-B06C-B115CC58C2D7}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{39C158D7-9C97-4D72-B06C-B115CC58C2D7}"/>
   </bookViews>
   <sheets>
     <sheet name="EV50F63A_MCP19061_Dual_USB_DCP" sheetId="1" r:id="rId1"/>
@@ -699,7 +699,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1031,8 +1042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17E93438-AC48-464D-8F3F-FF5B0A4F06BF}">
   <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67:N67"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4073,6 +4084,9 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
